--- a/definition测试/Tosdata/[1006PP转义和元组对应]output_Tuple(1).xlsx
+++ b/definition测试/Tosdata/[1006PP转义和元组对应]output_Tuple(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="481"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="481" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3125,7 +3125,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3141,6 +3141,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3502,7 +3505,7 @@
   <sheetPr/>
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E77" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -4181,10 +4184,10 @@
       <c r="G19" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="18" t="s">
         <v>121</v>
       </c>
       <c r="J19" s="5" t="s">
@@ -4216,10 +4219,10 @@
       <c r="G20" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="19" t="s">
         <v>127</v>
       </c>
       <c r="J20" s="5" t="s">
@@ -5114,7 +5117,7 @@
       <c r="G46" t="s">
         <v>250</v>
       </c>
-      <c r="H46" s="19" t="s">
+      <c r="H46" s="20" t="s">
         <v>251</v>
       </c>
       <c r="I46" t="s">
@@ -5318,7 +5321,7 @@
       <c r="H52" t="s">
         <v>268</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="I52" s="12" t="s">
         <v>269</v>
       </c>
       <c r="J52" t="s">
@@ -5531,7 +5534,7 @@
       <c r="H58" t="s">
         <v>48</v>
       </c>
-      <c r="I58" s="21" t="s">
+      <c r="I58" s="22" t="s">
         <v>291</v>
       </c>
       <c r="J58" t="s">
@@ -5702,7 +5705,7 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="21" t="s">
         <v>304</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -5746,7 +5749,7 @@
       <c r="H65" t="s">
         <v>27</v>
       </c>
-      <c r="I65" s="21" t="s">
+      <c r="I65" s="22" t="s">
         <v>313</v>
       </c>
       <c r="J65" t="s">
@@ -5781,7 +5784,7 @@
       <c r="H66" t="s">
         <v>27</v>
       </c>
-      <c r="I66" s="21" t="s">
+      <c r="I66" s="22" t="s">
         <v>317</v>
       </c>
       <c r="J66" t="s">
@@ -6001,38 +6004,38 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" s="16" customFormat="1" spans="1:11">
-      <c r="A73" s="16" t="s">
+    <row r="73" s="17" customFormat="1" spans="1:11">
+      <c r="A73" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="F73" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="G73" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="H73" s="16" t="s">
+      <c r="H73" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="I73" s="16" t="s">
+      <c r="I73" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="J73" s="16" t="s">
+      <c r="J73" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K73" s="16" t="s">
+      <c r="K73" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6163,10 +6166,10 @@
       <c r="F77" t="s">
         <v>124</v>
       </c>
-      <c r="G77" s="11" t="s">
+      <c r="G77" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="H77" s="21" t="s">
+      <c r="H77" s="22" t="s">
         <v>361</v>
       </c>
       <c r="I77" t="s">
@@ -6294,10 +6297,10 @@
       <c r="H81" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I81" s="17" t="s">
+      <c r="I81" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="J81" s="17" t="s">
+      <c r="J81" s="18" t="s">
         <v>381</v>
       </c>
       <c r="K81" s="5" t="s">
@@ -6358,13 +6361,13 @@
       <c r="F83" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G83" s="22" t="s">
+      <c r="G83" s="23" t="s">
         <v>386</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I83" s="22" t="s">
+      <c r="I83" s="23" t="s">
         <v>387</v>
       </c>
       <c r="J83" s="5" t="s">
@@ -6434,7 +6437,7 @@
       <c r="H85" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="I85" s="22" t="s">
+      <c r="I85" s="23" t="s">
         <v>400</v>
       </c>
       <c r="J85" s="5" t="s">
@@ -6469,7 +6472,7 @@
       <c r="H86" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="I86" s="23" t="s">
+      <c r="I86" s="24" t="s">
         <v>27</v>
       </c>
       <c r="J86" s="5" t="s">
@@ -6539,7 +6542,7 @@
       <c r="G88" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="H88" s="23" t="s">
+      <c r="H88" s="24" t="s">
         <v>409</v>
       </c>
       <c r="I88" s="5" t="s">
@@ -6565,8 +6568,8 @@
   <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -6574,7 +6577,7 @@
     <col min="5" max="5" width="42.225" customWidth="1"/>
     <col min="6" max="6" width="11.4416666666667" customWidth="1"/>
     <col min="7" max="7" width="10.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="17.5583333333333" customWidth="1"/>
+    <col min="8" max="8" width="48.675" customWidth="1"/>
     <col min="9" max="9" width="46.3333333333333" customWidth="1"/>
     <col min="10" max="10" width="18.775" customWidth="1"/>
     <col min="11" max="11" width="17.775" customWidth="1"/>
@@ -6681,10 +6684,10 @@
       <c r="H3" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="13" t="s">
         <v>127</v>
       </c>
       <c r="K3" s="5" t="s">
@@ -6789,7 +6792,7 @@
       <c r="H6" t="s">
         <v>250</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="14" t="s">
         <v>251</v>
       </c>
       <c r="J6" t="s">
@@ -6802,7 +6805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" ht="54" spans="2:12">
       <c r="B7" s="10" t="s">
         <v>281</v>
       </c>
@@ -6812,7 +6815,7 @@
       <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="11" t="s">
         <v>295</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -6856,10 +6859,10 @@
       <c r="G8" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="15" t="s">
         <v>361</v>
       </c>
       <c r="J8" t="s">
@@ -6894,7 +6897,7 @@
       <c r="H9" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="16" t="s">
         <v>409</v>
       </c>
       <c r="J9" s="5" t="s">
